--- a/bioSample/bioSample_0674.xlsx
+++ b/bioSample/bioSample_0674.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_0674.xlsx
+++ b/bioSample/bioSample_0674.xlsx
@@ -224,7 +224,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -270,7 +270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
@@ -278,7 +278,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -299,7 +299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
@@ -307,7 +307,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -336,7 +336,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
@@ -357,7 +357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
@@ -365,7 +365,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
@@ -386,7 +386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
@@ -394,7 +394,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
@@ -415,7 +415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
@@ -423,7 +423,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
@@ -452,7 +452,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
@@ -481,7 +481,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>8</v>
+        <v>197</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
@@ -510,7 +510,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>14</v>
@@ -531,7 +531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>22</v>
       </c>
@@ -539,7 +539,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>22</v>
       </c>
@@ -568,7 +568,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>22</v>
       </c>
@@ -597,7 +597,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
@@ -618,7 +618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>22</v>
       </c>
@@ -626,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>14</v>
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>22</v>
       </c>
@@ -655,7 +655,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>14</v>
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>22</v>
       </c>
@@ -684,7 +684,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
@@ -705,7 +705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>22</v>
       </c>
@@ -713,7 +713,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>14</v>
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>22</v>
       </c>
@@ -742,7 +742,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>14</v>
